--- a/templates/export/route.xlsx
+++ b/templates/export/route.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69710D44-E1D3-3642-84D8-069B66A6AE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView xWindow="640" yWindow="900" windowWidth="16380" windowHeight="8200" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -136,19 +137,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Extended Values</t>
-  </si>
-  <si>
     <t>Correct</t>
   </si>
   <si>
     <t>History</t>
+  </si>
+  <si>
+    <t>Extra Info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -450,7 +451,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -501,7 +508,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -552,7 +565,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -603,7 +622,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -646,7 +671,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -689,7 +720,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -982,26 +1019,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="20"/>
-    <col min="2" max="2" width="20.7109375" style="20"/>
+    <col min="1" max="1" width="13.6640625" style="20"/>
+    <col min="2" max="2" width="20.6640625" style="20"/>
     <col min="3" max="4" width="13" style="20"/>
-    <col min="5" max="5" width="10.7109375" style="20"/>
-    <col min="6" max="6" width="11.42578125" style="20"/>
-    <col min="7" max="7" width="61.85546875" style="20"/>
-    <col min="8" max="8" width="73.28515625" style="20"/>
-    <col min="9" max="1025" width="8.7109375"/>
+    <col min="5" max="5" width="10.6640625" style="20"/>
+    <col min="6" max="6" width="11.5" style="20"/>
+    <col min="7" max="7" width="61.83203125" style="20"/>
+    <col min="8" max="8" width="73.33203125" style="20"/>
+    <col min="9" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -1011,12 +1048,12 @@
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1025,7 +1062,7 @@
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -1035,7 +1072,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1086,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1063,7 +1100,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1077,7 +1114,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="18"/>
@@ -1087,9 +1124,9 @@
       <c r="G7" s="18"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>6</v>
@@ -1110,10 +1147,10 @@
         <v>20</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
